--- a/request/公共数据库.xlsx
+++ b/request/公共数据库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="19620" activeTab="2"/>
+    <workbookView windowWidth="18525" windowHeight="17670"/>
   </bookViews>
   <sheets>
     <sheet name="科研项目" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="110">
   <si>
     <t>id</t>
   </si>
@@ -29,7 +29,7 @@
     <t>professional</t>
   </si>
   <si>
-    <t>categories</t>
+    <t>classification</t>
   </si>
   <si>
     <t>sponsor</t>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>college</t>
-  </si>
-  <si>
-    <t>classification</t>
   </si>
   <si>
     <t>国内学位点</t>
@@ -363,14 +360,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,13 +371,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -537,7 +520,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -654,12 +637,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -678,24 +655,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -708,12 +673,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -721,12 +680,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,148 +835,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,8 +987,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1366,8 +1319,8 @@
   <sheetPr/>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1573,7 +1526,7 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
@@ -1581,7 +1534,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1596,47 +1549,47 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="6:8">
       <c r="F4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="6:7">
       <c r="F5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="6:7">
@@ -1644,7 +1597,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="6:6">
@@ -1654,12 +1607,12 @@
     </row>
     <row r="8" spans="6:6">
       <c r="F8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1671,44 +1624,44 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="7:8">
       <c r="G11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" spans="7:7">
       <c r="G12" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="7:7">
       <c r="G13" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1734,21 +1687,21 @@
         <v>2</v>
       </c>
       <c r="H15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" t="s">
         <v>61</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>62</v>
       </c>
-      <c r="J15" t="s">
-        <v>63</v>
-      </c>
       <c r="K15" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1763,37 +1716,37 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="18" spans="7:11">
@@ -1801,7 +1754,7 @@
         <v>25</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="7:11">
@@ -1809,7 +1762,7 @@
         <v>28</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="7:7">
@@ -1854,7 +1807,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1869,45 +1822,45 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="K29" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="30" spans="11:11">
       <c r="K30" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="11:11">
       <c r="K31" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1929,7 +1882,7 @@
   <sheetPr/>
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="D1" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -1952,13 +1905,13 @@
   <sheetData>
     <row r="1" spans="3:17">
       <c r="C1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
         <v>39</v>
@@ -1970,22 +1923,22 @@
         <v>41</v>
       </c>
       <c r="I1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" t="s">
         <v>75</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>76</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>77</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>78</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>79</v>
-      </c>
-      <c r="N1" t="s">
-        <v>80</v>
       </c>
       <c r="P1" t="s">
         <v>10</v>
@@ -1996,46 +1949,46 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>23</v>
@@ -2049,10 +2002,10 @@
         <v>25</v>
       </c>
       <c r="K3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>27</v>
@@ -2131,33 +2084,33 @@
         <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
         <v>93</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>94</v>
-      </c>
-      <c r="F1" t="s">
-        <v>95</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2170,31 +2123,31 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="7:9">
@@ -2252,7 +2205,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2265,31 +2218,31 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="7:9">
@@ -2378,13 +2331,13 @@
         <v>37</v>
       </c>
       <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" t="s">
-        <v>104</v>
-      </c>
       <c r="D1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
@@ -2393,22 +2346,22 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
         <v>76</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>77</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>78</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>79</v>
-      </c>
-      <c r="L1" t="s">
-        <v>80</v>
       </c>
       <c r="N1" t="s">
         <v>10</v>
@@ -2419,7 +2372,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2441,40 +2394,40 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="6:12">
@@ -2482,10 +2435,10 @@
         <v>25</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>27</v>
@@ -2541,7 +2494,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2557,40 +2510,40 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="16" spans="6:12">
@@ -2598,10 +2551,10 @@
         <v>25</v>
       </c>
       <c r="I16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>27</v>
